--- a/data/EnemyConfig.xlsx
+++ b/data/EnemyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18A383-56D8-48F1-A59C-F8CE9C700FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177C1F8B-0ECB-4E8E-A0F1-07297CBFA5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="3105" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12390" yWindow="6600" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,18 +139,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行为id数组，记录当前卡牌有哪些基本行为，比如攻击、加盾、回血。右侧的属性值，必须一一对应actionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillIds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,6 +168,14 @@
   </si>
   <si>
     <t>角色图片路径， 最后的1代表翻转，0不翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为id数组，记录当前卡牌有哪些基本行为，比如攻击、加盾、回血。右侧的属性值，必须一一对应actionId --&gt; EnemySkillsConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["enemy_skill_001","enemy_skill_002"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,34 +517,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="7" max="7" width="37.25" customWidth="1"/>
+    <col min="6" max="6" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
@@ -560,11 +560,11 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -581,21 +581,18 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -603,16 +600,20 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
@@ -620,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -633,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -646,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -659,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -672,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -685,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -698,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -711,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -724,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -737,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -750,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
